--- a/EDA/EDA_Chekcklist.xlsx
+++ b/EDA/EDA_Chekcklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artificial Intelligence\Code Repository\Individual_Topics_Code_Notes\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DD6776-9570-44B0-AADD-A39A684C0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD4E4C-DAE1-4B24-AB8D-8CB09E2C1981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDA Checklist" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -235,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +552,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,19 +565,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -582,7 +591,9 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -597,7 +608,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -612,7 +625,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
@@ -627,7 +642,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
@@ -803,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
